--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Mdk-Itga6.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Mdk-Itga6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Itga6</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.64115168223275</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H2">
-        <v>0.64115168223275</v>
+        <v>3.712916</v>
       </c>
       <c r="I2">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J2">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N2">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O2">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P2">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q2">
-        <v>79.28572281691756</v>
+        <v>173.9624831482884</v>
       </c>
       <c r="R2">
-        <v>79.28572281691756</v>
+        <v>1565.662348334596</v>
       </c>
       <c r="S2">
-        <v>0.01644826060333935</v>
+        <v>0.02078235562114318</v>
       </c>
       <c r="T2">
-        <v>0.01644826060333935</v>
+        <v>0.02078235562114318</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.64115168223275</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H3">
-        <v>0.64115168223275</v>
+        <v>3.712916</v>
       </c>
       <c r="I3">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J3">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N3">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O3">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P3">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q3">
-        <v>0.9622843381205676</v>
+        <v>2.060698495874222</v>
       </c>
       <c r="R3">
-        <v>0.9622843381205676</v>
+        <v>18.546286462868</v>
       </c>
       <c r="S3">
-        <v>0.0001996311946914829</v>
+        <v>0.0002461804878509766</v>
       </c>
       <c r="T3">
-        <v>0.0001996311946914829</v>
+        <v>0.0002461804878509766</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.64115168223275</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H4">
-        <v>0.64115168223275</v>
+        <v>3.712916</v>
       </c>
       <c r="I4">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J4">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N4">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O4">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P4">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q4">
-        <v>24.7252546130957</v>
+        <v>49.80204693694755</v>
       </c>
       <c r="R4">
-        <v>24.7252546130957</v>
+        <v>448.218422432528</v>
       </c>
       <c r="S4">
-        <v>0.005129390474237309</v>
+        <v>0.005949580802558759</v>
       </c>
       <c r="T4">
-        <v>0.005129390474237309</v>
+        <v>0.005949580802558759</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.64115168223275</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H5">
-        <v>0.64115168223275</v>
+        <v>3.712916</v>
       </c>
       <c r="I5">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J5">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N5">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O5">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P5">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q5">
-        <v>34.16421072999429</v>
+        <v>66.73679831630177</v>
       </c>
       <c r="R5">
-        <v>34.16421072999429</v>
+        <v>600.631184846716</v>
       </c>
       <c r="S5">
-        <v>0.007087553993698909</v>
+        <v>0.007972683825417898</v>
       </c>
       <c r="T5">
-        <v>0.007087553993698909</v>
+        <v>0.0079726838254179</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.64115168223275</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H6">
-        <v>0.64115168223275</v>
+        <v>3.712916</v>
       </c>
       <c r="I6">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J6">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N6">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O6">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P6">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q6">
-        <v>13.76013052795065</v>
+        <v>26.817998698904</v>
       </c>
       <c r="R6">
-        <v>13.76013052795065</v>
+        <v>241.361988290136</v>
       </c>
       <c r="S6">
-        <v>0.002854614990170774</v>
+        <v>0.003203801049062351</v>
       </c>
       <c r="T6">
-        <v>0.002854614990170774</v>
+        <v>0.003203801049062351</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.64115168223275</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H7">
-        <v>0.64115168223275</v>
+        <v>3.712916</v>
       </c>
       <c r="I7">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J7">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.3688968199913</v>
+        <v>4.952613</v>
       </c>
       <c r="N7">
-        <v>4.3688968199913</v>
+        <v>14.857839</v>
       </c>
       <c r="O7">
-        <v>0.01799067706804354</v>
+        <v>0.0188306148173136</v>
       </c>
       <c r="P7">
-        <v>0.01799067706804354</v>
+        <v>0.01883061481731359</v>
       </c>
       <c r="Q7">
-        <v>2.801125545638734</v>
+        <v>6.129545349836</v>
       </c>
       <c r="R7">
-        <v>2.801125545638734</v>
+        <v>55.165908148524</v>
       </c>
       <c r="S7">
-        <v>0.0005811089477449538</v>
+        <v>0.0007322635832211594</v>
       </c>
       <c r="T7">
-        <v>0.0005811089477449538</v>
+        <v>0.0007322635832211593</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.59302564509964</v>
+        <v>3.644449</v>
       </c>
       <c r="H8">
-        <v>3.59302564509964</v>
+        <v>10.933347</v>
       </c>
       <c r="I8">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="J8">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N8">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O8">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P8">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q8">
-        <v>444.3186273478906</v>
+        <v>512.2637283584896</v>
       </c>
       <c r="R8">
-        <v>444.3186273478906</v>
+        <v>4610.373555226408</v>
       </c>
       <c r="S8">
-        <v>0.09217635046869661</v>
+        <v>0.0611973730306204</v>
       </c>
       <c r="T8">
-        <v>0.09217635046869661</v>
+        <v>0.06119737303062039</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.59302564509964</v>
+        <v>3.644449</v>
       </c>
       <c r="H9">
-        <v>3.59302564509964</v>
+        <v>10.933347</v>
       </c>
       <c r="I9">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="J9">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N9">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O9">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P9">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q9">
-        <v>5.39265886771828</v>
+        <v>6.068096266592334</v>
       </c>
       <c r="R9">
-        <v>5.39265886771828</v>
+        <v>54.612866399331</v>
       </c>
       <c r="S9">
-        <v>0.001118736832430226</v>
+        <v>0.0007249225940753875</v>
       </c>
       <c r="T9">
-        <v>0.001118736832430226</v>
+        <v>0.0007249225940753874</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.59302564509964</v>
+        <v>3.644449</v>
       </c>
       <c r="H10">
-        <v>3.59302564509964</v>
+        <v>10.933347</v>
       </c>
       <c r="I10">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="J10">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N10">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O10">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P10">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q10">
-        <v>138.5607748810694</v>
+        <v>146.6510582172974</v>
       </c>
       <c r="R10">
-        <v>138.5607748810694</v>
+        <v>1319.859523955676</v>
       </c>
       <c r="S10">
-        <v>0.02874519716377195</v>
+        <v>0.0175196076126994</v>
       </c>
       <c r="T10">
-        <v>0.02874519716377195</v>
+        <v>0.0175196076126994</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.59302564509964</v>
+        <v>3.644449</v>
       </c>
       <c r="H11">
-        <v>3.59302564509964</v>
+        <v>10.933347</v>
       </c>
       <c r="I11">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="J11">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N11">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O11">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P11">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q11">
-        <v>191.4568559969811</v>
+        <v>196.5184705662997</v>
       </c>
       <c r="R11">
-        <v>191.4568559969811</v>
+        <v>1768.666235096697</v>
       </c>
       <c r="S11">
-        <v>0.03971878100936497</v>
+        <v>0.02347699726699482</v>
       </c>
       <c r="T11">
-        <v>0.03971878100936497</v>
+        <v>0.02347699726699481</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.59302564509964</v>
+        <v>3.644449</v>
       </c>
       <c r="H12">
-        <v>3.59302564509964</v>
+        <v>10.933347</v>
       </c>
       <c r="I12">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="J12">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N12">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O12">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P12">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q12">
-        <v>77.11202081646776</v>
+        <v>78.97040644621801</v>
       </c>
       <c r="R12">
-        <v>77.11202081646776</v>
+        <v>710.7336580159621</v>
       </c>
       <c r="S12">
-        <v>0.01599731413142588</v>
+        <v>0.009434166727273851</v>
       </c>
       <c r="T12">
-        <v>0.01599731413142588</v>
+        <v>0.00943416672727385</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.59302564509964</v>
+        <v>3.644449</v>
       </c>
       <c r="H13">
-        <v>3.59302564509964</v>
+        <v>10.933347</v>
       </c>
       <c r="I13">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="J13">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.3688968199913</v>
+        <v>4.952613</v>
       </c>
       <c r="N13">
-        <v>4.3688968199913</v>
+        <v>14.857839</v>
       </c>
       <c r="O13">
-        <v>0.01799067706804354</v>
+        <v>0.0188306148173136</v>
       </c>
       <c r="P13">
-        <v>0.01799067706804354</v>
+        <v>0.01883061481731359</v>
       </c>
       <c r="Q13">
-        <v>15.69755831502301</v>
+        <v>18.049545495237</v>
       </c>
       <c r="R13">
-        <v>15.69755831502301</v>
+        <v>162.445909457133</v>
       </c>
       <c r="S13">
-        <v>0.003256545073037062</v>
+        <v>0.002156281437775677</v>
       </c>
       <c r="T13">
-        <v>0.003256545073037062</v>
+        <v>0.002156281437775676</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>4.58295704856817</v>
+        <v>1.671495666666667</v>
       </c>
       <c r="H14">
-        <v>4.58295704856817</v>
+        <v>5.014487</v>
       </c>
       <c r="I14">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389195</v>
       </c>
       <c r="J14">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389194</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N14">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O14">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P14">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q14">
-        <v>566.7349432340832</v>
+        <v>234.9454203205274</v>
       </c>
       <c r="R14">
-        <v>566.7349432340832</v>
+        <v>2114.508782884747</v>
       </c>
       <c r="S14">
-        <v>0.1175722905479257</v>
+        <v>0.02806765682056891</v>
       </c>
       <c r="T14">
-        <v>0.1175722905479257</v>
+        <v>0.0280676568205689</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>4.58295704856817</v>
+        <v>1.671495666666667</v>
       </c>
       <c r="H15">
-        <v>4.58295704856817</v>
+        <v>5.014487</v>
       </c>
       <c r="I15">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389195</v>
       </c>
       <c r="J15">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389194</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N15">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O15">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P15">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q15">
-        <v>6.878415689027952</v>
+        <v>2.783080958061222</v>
       </c>
       <c r="R15">
-        <v>6.878415689027952</v>
+        <v>25.047728622551</v>
       </c>
       <c r="S15">
-        <v>0.001426965281662148</v>
+        <v>0.0003324796079368292</v>
       </c>
       <c r="T15">
-        <v>0.001426965281662148</v>
+        <v>0.0003324796079368291</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>4.58295704856817</v>
+        <v>1.671495666666667</v>
       </c>
       <c r="H16">
-        <v>4.58295704856817</v>
+        <v>5.014487</v>
       </c>
       <c r="I16">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389195</v>
       </c>
       <c r="J16">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389194</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N16">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O16">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P16">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q16">
-        <v>176.736306005034</v>
+        <v>67.26026576919956</v>
       </c>
       <c r="R16">
-        <v>176.736306005034</v>
+        <v>605.342391922796</v>
       </c>
       <c r="S16">
-        <v>0.03666492170292793</v>
+        <v>0.008035219646736008</v>
       </c>
       <c r="T16">
-        <v>0.03666492170292793</v>
+        <v>0.008035219646736005</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>4.58295704856817</v>
+        <v>1.671495666666667</v>
       </c>
       <c r="H17">
-        <v>4.58295704856817</v>
+        <v>5.014487</v>
       </c>
       <c r="I17">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389195</v>
       </c>
       <c r="J17">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389194</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N17">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O17">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P17">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q17">
-        <v>244.206035346495</v>
+        <v>90.13153208387079</v>
       </c>
       <c r="R17">
-        <v>244.206035346495</v>
+        <v>811.1837887548371</v>
       </c>
       <c r="S17">
-        <v>0.05066188927308834</v>
+        <v>0.01076752595471277</v>
       </c>
       <c r="T17">
-        <v>0.05066188927308834</v>
+        <v>0.01076752595471277</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>4.58295704856817</v>
+        <v>1.671495666666667</v>
       </c>
       <c r="H18">
-        <v>4.58295704856817</v>
+        <v>5.014487</v>
       </c>
       <c r="I18">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389195</v>
       </c>
       <c r="J18">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389194</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N18">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O18">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P18">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q18">
-        <v>98.35751654379469</v>
+        <v>36.219108065378</v>
       </c>
       <c r="R18">
-        <v>98.35751654379469</v>
+        <v>325.971972588402</v>
       </c>
       <c r="S18">
-        <v>0.02040480942761106</v>
+        <v>0.004326900665436418</v>
       </c>
       <c r="T18">
-        <v>0.02040480942761106</v>
+        <v>0.004326900665436417</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>4.58295704856817</v>
+        <v>1.671495666666667</v>
       </c>
       <c r="H19">
-        <v>4.58295704856817</v>
+        <v>5.014487</v>
       </c>
       <c r="I19">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389195</v>
       </c>
       <c r="J19">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389194</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.3688968199913</v>
+        <v>4.952613</v>
       </c>
       <c r="N19">
-        <v>4.3688968199913</v>
+        <v>14.857839</v>
       </c>
       <c r="O19">
-        <v>0.01799067706804354</v>
+        <v>0.0188306148173136</v>
       </c>
       <c r="P19">
-        <v>0.01799067706804354</v>
+        <v>0.01883061481731359</v>
       </c>
       <c r="Q19">
-        <v>20.02246647564619</v>
+        <v>8.278271168177001</v>
       </c>
       <c r="R19">
-        <v>20.02246647564619</v>
+        <v>74.504440513593</v>
       </c>
       <c r="S19">
-        <v>0.004153771130693187</v>
+        <v>0.0009889602185010173</v>
       </c>
       <c r="T19">
-        <v>0.004153771130693187</v>
+        <v>0.0009889602185010166</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>11.0324186406963</v>
+        <v>2.306614666666666</v>
       </c>
       <c r="H20">
-        <v>11.0324186406963</v>
+        <v>6.919843999999999</v>
       </c>
       <c r="I20">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="J20">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N20">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O20">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P20">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q20">
-        <v>1364.284475243573</v>
+        <v>324.2177429381071</v>
       </c>
       <c r="R20">
-        <v>1364.284475243573</v>
+        <v>2917.959686442964</v>
       </c>
       <c r="S20">
-        <v>0.2830283408995826</v>
+        <v>0.03873253767411757</v>
       </c>
       <c r="T20">
-        <v>0.2830283408995826</v>
+        <v>0.03873253767411756</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>11.0324186406963</v>
+        <v>2.306614666666666</v>
       </c>
       <c r="H21">
-        <v>11.0324186406963</v>
+        <v>6.919843999999999</v>
       </c>
       <c r="I21">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="J21">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N21">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O21">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P21">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q21">
-        <v>16.5582091784601</v>
+        <v>3.840569547623555</v>
       </c>
       <c r="R21">
-        <v>16.5582091784601</v>
+        <v>34.565125928612</v>
       </c>
       <c r="S21">
-        <v>0.003435091842711988</v>
+        <v>0.0004588120420102833</v>
       </c>
       <c r="T21">
-        <v>0.003435091842711988</v>
+        <v>0.0004588120420102832</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>11.0324186406963</v>
+        <v>2.306614666666666</v>
       </c>
       <c r="H22">
-        <v>11.0324186406963</v>
+        <v>6.919843999999999</v>
       </c>
       <c r="I22">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="J22">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N22">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O22">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P22">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q22">
-        <v>425.4521472041545</v>
+        <v>92.81718080461688</v>
       </c>
       <c r="R22">
-        <v>425.4521472041545</v>
+        <v>835.354627241552</v>
       </c>
       <c r="S22">
-        <v>0.08826239507992534</v>
+        <v>0.01108836586098404</v>
       </c>
       <c r="T22">
-        <v>0.08826239507992534</v>
+        <v>0.01108836586098404</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>11.0324186406963</v>
+        <v>2.306614666666666</v>
       </c>
       <c r="H23">
-        <v>11.0324186406963</v>
+        <v>6.919843999999999</v>
       </c>
       <c r="I23">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="J23">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N23">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O23">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P23">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q23">
-        <v>587.8700559432344</v>
+        <v>124.3788530115605</v>
       </c>
       <c r="R23">
-        <v>587.8700559432344</v>
+        <v>1119.409677104044</v>
       </c>
       <c r="S23">
-        <v>0.1219568862780272</v>
+        <v>0.01485886789068621</v>
       </c>
       <c r="T23">
-        <v>0.1219568862780272</v>
+        <v>0.01485886789068621</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>11.0324186406963</v>
+        <v>2.306614666666666</v>
       </c>
       <c r="H24">
-        <v>11.0324186406963</v>
+        <v>6.919843999999999</v>
       </c>
       <c r="I24">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="J24">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N24">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O24">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P24">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q24">
-        <v>236.7731766784448</v>
+        <v>49.981299708536</v>
       </c>
       <c r="R24">
-        <v>236.7731766784448</v>
+        <v>449.831697376824</v>
       </c>
       <c r="S24">
-        <v>0.04911990173666655</v>
+        <v>0.005970995160285828</v>
       </c>
       <c r="T24">
-        <v>0.04911990173666655</v>
+        <v>0.005970995160285827</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>2.306614666666666</v>
+      </c>
+      <c r="H25">
+        <v>6.919843999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.07247431452913082</v>
+      </c>
+      <c r="J25">
+        <v>0.07247431452913082</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.952613</v>
+      </c>
+      <c r="N25">
+        <v>14.857839</v>
+      </c>
+      <c r="O25">
+        <v>0.0188306148173136</v>
+      </c>
+      <c r="P25">
+        <v>0.01883061481731359</v>
+      </c>
+      <c r="Q25">
+        <v>11.423769784124</v>
+      </c>
+      <c r="R25">
+        <v>102.813928057116</v>
+      </c>
+      <c r="S25">
+        <v>0.001364735901046897</v>
+      </c>
+      <c r="T25">
+        <v>0.001364735901046897</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H26">
+        <v>13.913504</v>
+      </c>
+      <c r="I26">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J26">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>140.5599936666667</v>
+      </c>
+      <c r="N26">
+        <v>421.679981</v>
+      </c>
+      <c r="O26">
+        <v>0.5344312385120821</v>
+      </c>
+      <c r="P26">
+        <v>0.534431238512082</v>
+      </c>
+      <c r="Q26">
+        <v>651.8940113737137</v>
+      </c>
+      <c r="R26">
+        <v>5867.046102363423</v>
+      </c>
+      <c r="S26">
+        <v>0.07787824665685895</v>
+      </c>
+      <c r="T26">
+        <v>0.07787824665685894</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H27">
+        <v>13.913504</v>
+      </c>
+      <c r="I27">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J27">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.665024333333333</v>
+      </c>
+      <c r="N27">
+        <v>4.995073</v>
+      </c>
+      <c r="O27">
+        <v>0.006330684808696814</v>
+      </c>
+      <c r="P27">
+        <v>0.006330684808696813</v>
+      </c>
+      <c r="Q27">
+        <v>7.722107573976889</v>
+      </c>
+      <c r="R27">
+        <v>69.49896816579199</v>
+      </c>
+      <c r="S27">
+        <v>0.0009225183662750554</v>
+      </c>
+      <c r="T27">
+        <v>0.0009225183662750553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H28">
+        <v>13.913504</v>
+      </c>
+      <c r="I28">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J28">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>40.23956933333334</v>
+      </c>
+      <c r="N28">
+        <v>120.718708</v>
+      </c>
+      <c r="O28">
+        <v>0.152997181594965</v>
+      </c>
+      <c r="P28">
+        <v>0.152997181594965</v>
+      </c>
+      <c r="Q28">
+        <v>186.6244696258702</v>
+      </c>
+      <c r="R28">
+        <v>1679.620226632832</v>
+      </c>
+      <c r="S28">
+        <v>0.02229501456395041</v>
+      </c>
+      <c r="T28">
+        <v>0.02229501456395041</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H29">
+        <v>13.913504</v>
+      </c>
+      <c r="I29">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J29">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>53.92268366666667</v>
+      </c>
+      <c r="N29">
+        <v>161.768051</v>
+      </c>
+      <c r="O29">
+        <v>0.2050225378083947</v>
+      </c>
+      <c r="P29">
+        <v>0.2050225378083947</v>
+      </c>
+      <c r="Q29">
+        <v>250.0844916289671</v>
+      </c>
+      <c r="R29">
+        <v>2250.760424660704</v>
+      </c>
+      <c r="S29">
+        <v>0.02987623967137615</v>
+      </c>
+      <c r="T29">
+        <v>0.02987623967137614</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H30">
+        <v>13.913504</v>
+      </c>
+      <c r="I30">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J30">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>21.668682</v>
+      </c>
+      <c r="N30">
+        <v>65.006046</v>
+      </c>
+      <c r="O30">
+        <v>0.08238774245854792</v>
+      </c>
+      <c r="P30">
+        <v>0.08238774245854791</v>
+      </c>
+      <c r="Q30">
+        <v>100.495764560576</v>
+      </c>
+      <c r="R30">
+        <v>904.461881045184</v>
+      </c>
+      <c r="S30">
+        <v>0.01200568467246046</v>
+      </c>
+      <c r="T30">
+        <v>0.01200568467246046</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H31">
+        <v>13.913504</v>
+      </c>
+      <c r="I31">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J31">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.952613</v>
+      </c>
+      <c r="N31">
+        <v>14.857839</v>
+      </c>
+      <c r="O31">
+        <v>0.0188306148173136</v>
+      </c>
+      <c r="P31">
+        <v>0.01883061481731359</v>
+      </c>
+      <c r="Q31">
+        <v>22.969400261984</v>
+      </c>
+      <c r="R31">
+        <v>206.724602357856</v>
+      </c>
+      <c r="S31">
+        <v>0.002744029839135045</v>
+      </c>
+      <c r="T31">
+        <v>0.002744029839135044</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H32">
+        <v>54.985853</v>
+      </c>
+      <c r="I32">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J32">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>140.5599936666667</v>
+      </c>
+      <c r="N32">
+        <v>421.679981</v>
+      </c>
+      <c r="O32">
+        <v>0.5344312385120821</v>
+      </c>
+      <c r="P32">
+        <v>0.534431238512082</v>
+      </c>
+      <c r="Q32">
+        <v>2576.270383145421</v>
+      </c>
+      <c r="R32">
+        <v>23186.43344830879</v>
+      </c>
+      <c r="S32">
+        <v>0.307773068708773</v>
+      </c>
+      <c r="T32">
+        <v>0.307773068708773</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H33">
+        <v>54.985853</v>
+      </c>
+      <c r="I33">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J33">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.665024333333333</v>
+      </c>
+      <c r="N33">
+        <v>4.995073</v>
+      </c>
+      <c r="O33">
+        <v>0.006330684808696814</v>
+      </c>
+      <c r="P33">
+        <v>0.006330684808696813</v>
+      </c>
+      <c r="Q33">
+        <v>30.51759441136322</v>
+      </c>
+      <c r="R33">
+        <v>274.658349702269</v>
+      </c>
+      <c r="S33">
+        <v>0.003645771710548282</v>
+      </c>
+      <c r="T33">
+        <v>0.003645771710548282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H34">
+        <v>54.985853</v>
+      </c>
+      <c r="I34">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J34">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>40.23956933333334</v>
+      </c>
+      <c r="N34">
+        <v>120.718708</v>
+      </c>
+      <c r="O34">
+        <v>0.152997181594965</v>
+      </c>
+      <c r="P34">
+        <v>0.152997181594965</v>
+      </c>
+      <c r="Q34">
+        <v>737.5356813819916</v>
+      </c>
+      <c r="R34">
+        <v>6637.821132437924</v>
+      </c>
+      <c r="S34">
+        <v>0.08810939310803638</v>
+      </c>
+      <c r="T34">
+        <v>0.08810939310803637</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>11.0324186406963</v>
-      </c>
-      <c r="H25">
-        <v>11.0324186406963</v>
-      </c>
-      <c r="I25">
-        <v>0.5558018677534822</v>
-      </c>
-      <c r="J25">
-        <v>0.5558018677534822</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>4.3688968199913</v>
-      </c>
-      <c r="N25">
-        <v>4.3688968199913</v>
-      </c>
-      <c r="O25">
-        <v>0.01799067706804354</v>
-      </c>
-      <c r="P25">
-        <v>0.01799067706804354</v>
-      </c>
-      <c r="Q25">
-        <v>48.19949871615081</v>
-      </c>
-      <c r="R25">
-        <v>48.19949871615081</v>
-      </c>
-      <c r="S25">
-        <v>0.009999251916568339</v>
-      </c>
-      <c r="T25">
-        <v>0.009999251916568339</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H35">
+        <v>54.985853</v>
+      </c>
+      <c r="I35">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J35">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>53.92268366666667</v>
+      </c>
+      <c r="N35">
+        <v>161.768051</v>
+      </c>
+      <c r="O35">
+        <v>0.2050225378083947</v>
+      </c>
+      <c r="P35">
+        <v>0.2050225378083947</v>
+      </c>
+      <c r="Q35">
+        <v>988.3282524869448</v>
+      </c>
+      <c r="R35">
+        <v>8894.954272382503</v>
+      </c>
+      <c r="S35">
+        <v>0.1180702231992069</v>
+      </c>
+      <c r="T35">
+        <v>0.1180702231992068</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H36">
+        <v>54.985853</v>
+      </c>
+      <c r="I36">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J36">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>21.668682</v>
+      </c>
+      <c r="N36">
+        <v>65.006046</v>
+      </c>
+      <c r="O36">
+        <v>0.08238774245854792</v>
+      </c>
+      <c r="P36">
+        <v>0.08238774245854791</v>
+      </c>
+      <c r="Q36">
+        <v>397.156987718582</v>
+      </c>
+      <c r="R36">
+        <v>3574.412889467238</v>
+      </c>
+      <c r="S36">
+        <v>0.047446194184029</v>
+      </c>
+      <c r="T36">
+        <v>0.047446194184029</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H37">
+        <v>54.985853</v>
+      </c>
+      <c r="I37">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J37">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.952613</v>
+      </c>
+      <c r="N37">
+        <v>14.857839</v>
+      </c>
+      <c r="O37">
+        <v>0.0188306148173136</v>
+      </c>
+      <c r="P37">
+        <v>0.01883061481731359</v>
+      </c>
+      <c r="Q37">
+        <v>90.77455012796301</v>
+      </c>
+      <c r="R37">
+        <v>816.970951151667</v>
+      </c>
+      <c r="S37">
+        <v>0.0108443438376338</v>
+      </c>
+      <c r="T37">
+        <v>0.0108443438376338</v>
       </c>
     </row>
   </sheetData>
